--- a/data/trans_bre/P16A09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -625,17 +625,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,17 +645,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,82</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>253,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,2%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 1,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; -0,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,67; 1,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>586,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,89%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>180,49%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,44; 2,2</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 1,94</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 0,99</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-0,22; 1,84</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,52; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>160,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>453,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,25%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,03; 2,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 3,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,92; 3,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 5,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,33; 254,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,28; 571,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,93; 2125,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,36; 433,01</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>230,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>157,01%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>182,91%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 5,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,06; 9,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 6,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,37; 6,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,97; 96,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,85; 543,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,44; 542,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,01; 412,86</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,31</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>156,16%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,87; 9,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,35; 14,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,88; 8,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,51; 9,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,45; 100,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,95; 220,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,19; 211,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,85; 249,03</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,48%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>179,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>185,11%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>185,73%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 3,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,84; 4,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,73; 3,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 4,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,95; 124,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>112,6; 278,51</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>106,21; 296,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>120,09; 276,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,6</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>74,2%</t>
+          <t>70,72%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 1,27</t>
+          <t>-0,65; 1,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>180,49%</t>
+          <t>196,8%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 1,84</t>
+          <t>-0,18; 1,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-56,52; —</t>
+          <t>-63,45; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>125,62%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,37</t>
+          <t>0,15; 4,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 433,01</t>
+          <t>-2,34; 602,32</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>182,91%</t>
+          <t>186,43%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 6,7</t>
+          <t>2,34; 6,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>59,01; 412,86</t>
+          <t>61,09; 432,63</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>9,51</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,31</t>
+          <t>10,69</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>49,2%</t>
+          <t>158,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>118,44%</t>
+          <t>227,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>113,59%</t>
+          <t>211,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>156,16%</t>
+          <t>169,88%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,3</t>
+          <t>5,1; 14,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,35; 14,72</t>
+          <t>5,99; 15,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 8,66</t>
+          <t>2,77; 10,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,51; 9,86</t>
+          <t>-0,78; 10,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,45; 100,13</t>
+          <t>58,07; 341,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>58,95; 220,04</t>
+          <t>73,14; 503,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,19; 211,39</t>
+          <t>46,14; 583,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>67,85; 249,03</t>
+          <t>-17,37; 371,7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>8,68</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>74,48%</t>
+          <t>-3,45%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>179,24%</t>
+          <t>63,57%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>185,11%</t>
+          <t>57,23%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>185,73%</t>
+          <t>108,22%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-7,47; 6,38</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 15,52</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 8,82</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 10,84</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-34,75; 44,58</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8,63; 150,05</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-7,59; 161,0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>44,05; 208,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3,34</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>74,48%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>179,24%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>185,11%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>190,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>1,2; 3,14</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,84; 4,84</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1,73; 3,23</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,68; 4,51</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2,28; 4,18</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>34,95; 124,09</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>112,6; 278,51</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>106,21; 296,68</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>120,09; 276,24</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>116,92; 307,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16A09-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A09-Edad-trans_bre.xlsx
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,82</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,88</t>
+          <t>0,0; 4,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,39</t>
+          <t>-0,13; 1,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,54; -0,14</t>
+          <t>-1,69; -0,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,11</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,14</t>
+          <t>-0,66; 1,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,2</t>
+          <t>0,44; 2,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,94</t>
+          <t>0,15; 1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 0,99</t>
+          <t>-0,47; 0,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,83</t>
+          <t>-0,13; 1,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-63,45; —</t>
+          <t>-50,19; —</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,67</t>
+          <t>-1,11; 2,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,17</t>
+          <t>0,11; 3,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,85</t>
+          <t>0,93; 3,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 4,59</t>
+          <t>0,15; 4,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,33; 254,88</t>
+          <t>-44,08; 268,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 571,08</t>
+          <t>-23,08; 707,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,93; 2125,68</t>
+          <t>38,58; 2051,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 602,32</t>
+          <t>0,3; 615,04</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 5,24</t>
+          <t>-2,53; 5,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 9,76</t>
+          <t>3,36; 9,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,06</t>
+          <t>0,88; 6,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,52</t>
+          <t>2,4; 6,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 96,63</t>
+          <t>-26,82; 97,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,85; 543,15</t>
+          <t>75,79; 519,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,44; 542,6</t>
+          <t>12,46; 495,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>61,09; 432,63</t>
+          <t>69,44; 426,22</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,1; 14,75</t>
+          <t>4,78; 14,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,99; 15,21</t>
+          <t>5,67; 15,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 10,05</t>
+          <t>3,0; 9,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 10,22</t>
+          <t>-0,37; 10,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>58,07; 341,02</t>
+          <t>52,37; 340,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>73,14; 503,22</t>
+          <t>69,84; 552,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>46,14; 583,03</t>
+          <t>56,74; 583,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,37; 371,7</t>
+          <t>-5,18; 393,59</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 6,38</t>
+          <t>-7,9; 5,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,19; 15,52</t>
+          <t>1,33; 14,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 8,82</t>
+          <t>-0,39; 9,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,11; 10,84</t>
+          <t>3,83; 10,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 44,58</t>
+          <t>-34,96; 39,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,63; 150,05</t>
+          <t>6,0; 137,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 161,0</t>
+          <t>-4,38; 177,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>44,05; 208,99</t>
+          <t>45,35; 223,32</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,14</t>
+          <t>1,14; 3,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,84; 4,84</t>
+          <t>2,84; 4,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,23</t>
+          <t>1,72; 3,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,18</t>
+          <t>2,32; 4,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,95; 124,09</t>
+          <t>32,77; 123,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>112,6; 278,51</t>
+          <t>112,72; 268,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>106,21; 296,68</t>
+          <t>107,08; 320,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>116,92; 307,02</t>
+          <t>112,42; 307,66</t>
         </is>
       </c>
     </row>
